--- a/data/covid_data/indonesia/Indonesia case numbers.xlsx
+++ b/data/covid_data/indonesia/Indonesia case numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahamfaisalkhan/repos/world-bank/covid-analytics/data/covid_data/indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE49EE-1CA8-EA43-BD84-D4AFE34F492F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D62AE8-5AFC-074B-81E7-2BBEF091B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="560" windowWidth="18280" windowHeight="16940" activeTab="1" xr2:uid="{B8E48691-8142-734D-8F42-F86D954D82D7}"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="18280" windowHeight="16940" xr2:uid="{B8E48691-8142-734D-8F42-F86D954D82D7}"/>
   </bookViews>
   <sheets>
     <sheet name="From Wiki" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>Jakarta</t>
   </si>
@@ -193,25 +193,551 @@
   </si>
   <si>
     <t>numbers</t>
+  </si>
+  <si>
+    <t>19_Apr</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bali</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bangka Belitung Islands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bengkulu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Central Java</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Central Kalimantan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Central Sulawesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>East Java</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>East Kalimantan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>East Nusa Tenggara</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gorontalo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jakarta</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[b]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jambi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lampung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maluku</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>North Kalimantan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>North Maluku</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>North Sulawesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>North Sumatra</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[c]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Papua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riau Islands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>South Kalimantan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>South Sulawesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>South Sumatra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Southeast Sulawesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Special Region of Yogyakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Java</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Kalimantan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Nusa Tenggara</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Papua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Sulawesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>West Sumatra</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,6 +755,21 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B0080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF0B0080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,16 +794,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -280,6 +819,2057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507A075-1695-EF4C-8D4E-4907D59B56AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="8178800"/>
+          <a:ext cx="254000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7514F4A4-4202-A64B-B695-F2F9BC7E617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="8382000"/>
+          <a:ext cx="254000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4845C7A7-5FFE-B647-A7DE-90FE3AFF97F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="8636000"/>
+          <a:ext cx="254000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9DA08F-C38E-4848-8FFE-E723E9065470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="8851900"/>
+          <a:ext cx="254000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C9AA5-3CCD-2C44-9AED-0325B44910A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="9093200"/>
+          <a:ext cx="254000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AF881C-CDFF-B749-9C8B-145C99CF6A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="9309100"/>
+          <a:ext cx="254000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093DBA09-3B60-1246-8AD7-F65255549886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="9575800"/>
+          <a:ext cx="254000" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64F78C6-744F-AA45-93E2-7B09437CAF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="9867900"/>
+          <a:ext cx="254000" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BE8981-B6EA-F84E-9CE6-7A5B60ACF623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="10147300"/>
+          <a:ext cx="254000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC59ACD-B722-D547-9D0D-53B955091A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="10388600"/>
+          <a:ext cx="254000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80669DBE-8083-5C44-9676-83D984947670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="10604500"/>
+          <a:ext cx="254000" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9A6BF4-B549-E24E-9755-400B4C8C153E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="10833100"/>
+          <a:ext cx="254000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCC0B1D-8B73-D545-9763-3E98FFF06DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="11061700"/>
+          <a:ext cx="254000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41278F3-0CAB-6F49-8D7D-3E5E39209881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="11277600"/>
+          <a:ext cx="254000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB920E-1AB6-1949-B19E-603B3FF104F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="11582400"/>
+          <a:ext cx="254000" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8114091-A904-9E43-AD28-736FFEFA88C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="11811000"/>
+          <a:ext cx="254000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F197EBDD-49C4-D145-B6F2-80C557952EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12077700"/>
+          <a:ext cx="254000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3970C33-A5EC-4C46-B30C-D99E76B5A8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12306300"/>
+          <a:ext cx="254000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8176554-2788-7F44-84E9-DBC3A8C2BEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="11836400"/>
+          <a:ext cx="254000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7121D41B-27A7-434F-BDEB-E10A61679DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12090400"/>
+          <a:ext cx="254000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5EF7DD-E302-3143-A9D3-B51C153091F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12344400"/>
+          <a:ext cx="254000" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45271A44-0A8E-234A-96C1-424CDFA0A3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12636500"/>
+          <a:ext cx="254000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6561B1D-4D97-D242-81D9-3F32B5BF3759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12903200"/>
+          <a:ext cx="254000" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13556512-78A9-1B4A-B129-2369126B6CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13182600"/>
+          <a:ext cx="254000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20A7E25-5918-C045-B384-D09D577400E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13423900"/>
+          <a:ext cx="254000" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40A4F25-E588-6444-A7CF-B7247EB8273D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13690600"/>
+          <a:ext cx="254000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCD2E7-6EC2-C744-ACF5-2E804AEE60AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13462000"/>
+          <a:ext cx="254000" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AAC94D-4DA9-9C4D-9AF1-16DF34984B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13728700"/>
+          <a:ext cx="254000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BC7D23-08BF-144A-AC0E-6579D1DD35AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13957300"/>
+          <a:ext cx="254000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D072C97-A3D7-9440-9747-60C2761192F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14224000"/>
+          <a:ext cx="254000" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4FC128-08EC-3848-AE1D-2C03323B13E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14516100"/>
+          <a:ext cx="254000" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF4DF82-765F-FE42-AB5B-D5FC65F246F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14808200"/>
+          <a:ext cx="254000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6742DF-5511-F849-B30B-54F29F4637C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15036800"/>
+          <a:ext cx="254000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,598 +3169,1294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEE03B-CDF9-3142-B543-7BCA59A79ABF}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>2924</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>205</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>641</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>41</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>555</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>96</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>343</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>43</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>329</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>44</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>321</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>131</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>36</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>95</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>92</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>79</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>79</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>71</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>67</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>26</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>55</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>54</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>28</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>10</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>17</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>135</v>
+      </c>
+      <c r="D37">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>324</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>349</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>590</v>
+      </c>
+      <c r="D44">
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <v>54</v>
+      </c>
+      <c r="F44">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>3032</v>
+      </c>
+      <c r="D48">
+        <v>234</v>
+      </c>
+      <c r="E48">
+        <v>287</v>
+      </c>
+      <c r="F48">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>69</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56">
+        <v>107</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <v>79</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
+        <v>370</v>
+      </c>
+      <c r="D60">
+        <v>43</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>37</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>27</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64">
+        <v>696</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1178,17 +4464,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A9E86-8B04-C54F-9B07-4777D9F605B9}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B1" t="s">
@@ -1199,7 +4485,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>43921</v>
       </c>
       <c r="B2" t="s">
@@ -1210,7 +4496,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>43921</v>
       </c>
       <c r="B3" t="s">
@@ -1221,7 +4507,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>43921</v>
       </c>
       <c r="B4" t="s">
@@ -1232,7 +4518,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>43921</v>
       </c>
       <c r="B5" t="s">
@@ -1243,7 +4529,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>43921</v>
       </c>
       <c r="B6" t="s">
@@ -1254,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>43921</v>
       </c>
       <c r="B7" t="s">
@@ -1265,7 +4551,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>43921</v>
       </c>
       <c r="B8" t="s">
@@ -1276,7 +4562,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>43921</v>
       </c>
       <c r="B9" t="s">
@@ -1287,7 +4573,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>43921</v>
       </c>
       <c r="B10" t="s">
@@ -1298,7 +4584,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>43921</v>
       </c>
       <c r="B11" t="s">
@@ -1309,7 +4595,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>43921</v>
       </c>
       <c r="B12" t="s">
@@ -1320,7 +4606,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>43921</v>
       </c>
       <c r="B13" t="s">
@@ -1331,7 +4617,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>43921</v>
       </c>
       <c r="B14" t="s">
@@ -1342,7 +4628,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>43921</v>
       </c>
       <c r="B15" t="s">
@@ -1353,7 +4639,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>43920</v>
       </c>
       <c r="B16" t="s">
@@ -1364,7 +4650,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>43920</v>
       </c>
       <c r="B17" t="s">
@@ -1375,7 +4661,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>43920</v>
       </c>
       <c r="B18" t="s">
@@ -1386,7 +4672,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>43920</v>
       </c>
       <c r="B19" t="s">
@@ -1397,7 +4683,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>43920</v>
       </c>
       <c r="B20" t="s">
@@ -1408,7 +4694,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>43920</v>
       </c>
       <c r="B21" t="s">
@@ -1419,7 +4705,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>43920</v>
       </c>
       <c r="B22" t="s">
@@ -1430,7 +4716,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>43920</v>
       </c>
       <c r="B23" t="s">
@@ -1441,7 +4727,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>43920</v>
       </c>
       <c r="B24" t="s">
@@ -1452,7 +4738,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>43920</v>
       </c>
       <c r="B25" t="s">
@@ -1463,7 +4749,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>43920</v>
       </c>
       <c r="B26" t="s">
@@ -1474,7 +4760,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>43920</v>
       </c>
       <c r="B27" t="s">
@@ -1485,7 +4771,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>43920</v>
       </c>
       <c r="B28" t="s">
@@ -1496,7 +4782,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>43920</v>
       </c>
       <c r="B29" t="s">
@@ -1507,7 +4793,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>43920</v>
       </c>
       <c r="B30" t="s">
@@ -1518,7 +4804,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>43920</v>
       </c>
       <c r="B31" t="s">
@@ -1529,7 +4815,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>43920</v>
       </c>
       <c r="B32" t="s">
@@ -1540,7 +4826,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>43919</v>
       </c>
       <c r="B33" t="s">
@@ -1551,7 +4837,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>43919</v>
       </c>
       <c r="B34" t="s">
@@ -1562,7 +4848,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>43919</v>
       </c>
       <c r="B35" t="s">
@@ -1573,7 +4859,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>43919</v>
       </c>
       <c r="B36" t="s">
@@ -1584,7 +4870,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>43919</v>
       </c>
       <c r="B37" t="s">
@@ -1595,7 +4881,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>43919</v>
       </c>
       <c r="B38" t="s">
@@ -1606,7 +4892,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>43919</v>
       </c>
       <c r="B39" t="s">
@@ -1617,7 +4903,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>43919</v>
       </c>
       <c r="B40" t="s">
@@ -1628,7 +4914,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>43919</v>
       </c>
       <c r="B41" t="s">
@@ -1639,7 +4925,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>43919</v>
       </c>
       <c r="B42" t="s">
@@ -1650,7 +4936,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>43919</v>
       </c>
       <c r="B43" t="s">
@@ -1661,7 +4947,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>43892</v>
       </c>
       <c r="B44" t="s">
@@ -1672,7 +4958,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>43896</v>
       </c>
       <c r="B45" t="s">
@@ -1683,7 +4969,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>43898</v>
       </c>
       <c r="B46" t="s">
@@ -1694,7 +4980,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>43900</v>
       </c>
       <c r="B47" t="s">
@@ -1705,7 +4991,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>43903</v>
       </c>
       <c r="B48" t="s">
@@ -1716,7 +5002,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>43903</v>
       </c>
       <c r="B49" t="s">
@@ -1725,14 +5011,14 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="6"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>43903</v>
       </c>
       <c r="B50" t="s">
@@ -1741,14 +5027,14 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="6"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>43903</v>
       </c>
       <c r="B51" t="s">
@@ -1757,14 +5043,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>43904</v>
       </c>
       <c r="B52" t="s">
@@ -1773,14 +5059,14 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>43905</v>
       </c>
       <c r="B53" t="s">
@@ -1789,14 +5075,14 @@
       <c r="C53">
         <v>19</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>43905</v>
       </c>
       <c r="B54" t="s">
@@ -1805,14 +5091,14 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="6"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>43906</v>
       </c>
       <c r="B55" t="s">
@@ -1821,14 +5107,14 @@
       <c r="C55">
         <v>14</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="6"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>43906</v>
       </c>
       <c r="B56" t="s">
@@ -1837,14 +5123,14 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="6"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>43906</v>
       </c>
       <c r="B57" t="s">
@@ -1853,14 +5139,14 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>43906</v>
       </c>
       <c r="B58" t="s">
@@ -1869,14 +5155,14 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="6"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>43907</v>
       </c>
       <c r="B59" t="s">
@@ -1885,14 +5171,14 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="6"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>43907</v>
       </c>
       <c r="B60" t="s">
@@ -1901,14 +5187,14 @@
       <c r="C60">
         <v>6</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="6"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>43907</v>
       </c>
       <c r="B61" t="s">
@@ -1917,14 +5203,14 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>43908</v>
       </c>
       <c r="B62" t="s">
@@ -1933,12 +5219,12 @@
       <c r="C62">
         <v>30</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>43908</v>
       </c>
       <c r="B63" t="s">
@@ -1949,7 +5235,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>43908</v>
       </c>
       <c r="B64" t="s">
@@ -1960,7 +5246,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>43908</v>
       </c>
       <c r="B65" t="s">
@@ -1971,7 +5257,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>43908</v>
       </c>
       <c r="B66" t="s">
@@ -1982,7 +5268,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>43908</v>
       </c>
       <c r="B67" t="s">
@@ -1993,7 +5279,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>43908</v>
       </c>
       <c r="B68" t="s">
@@ -2004,7 +5290,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>43908</v>
       </c>
       <c r="B69" t="s">
@@ -2015,7 +5301,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>43908</v>
       </c>
       <c r="B70" t="s">
@@ -2026,7 +5312,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>43908</v>
       </c>
       <c r="B71" t="s">
@@ -2034,7 +5320,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>43909</v>
       </c>
       <c r="B72" t="s">
@@ -2042,7 +5328,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>43910</v>
       </c>
       <c r="B73" t="s">
@@ -2050,7 +5336,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>43911</v>
       </c>
       <c r="B74" t="s">
@@ -2058,7 +5344,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>43912</v>
       </c>
       <c r="B75" t="s">
@@ -2066,7 +5352,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>43913</v>
       </c>
       <c r="B76" t="s">
@@ -2074,7 +5360,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>43914</v>
       </c>
       <c r="B77" t="s">
@@ -2082,7 +5368,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>43915</v>
       </c>
       <c r="B78" t="s">
@@ -2090,7 +5376,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>43916</v>
       </c>
       <c r="B79" t="s">
@@ -2098,7 +5384,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>43917</v>
       </c>
       <c r="B80" t="s">
@@ -2106,7 +5392,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>43918</v>
       </c>
       <c r="B81" t="s">

--- a/data/covid_data/indonesia/Indonesia case numbers.xlsx
+++ b/data/covid_data/indonesia/Indonesia case numbers.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahamfaisalkhan/repos/world-bank/covid-analytics/data/covid_data/indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D62AE8-5AFC-074B-81E7-2BBEF091B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA91C58-AC67-8643-886D-A209B4B93910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="560" windowWidth="18280" windowHeight="16940" xr2:uid="{B8E48691-8142-734D-8F42-F86D954D82D7}"/>
   </bookViews>
   <sheets>
     <sheet name="From Wiki" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>Jakarta</t>
   </si>
@@ -138,9 +138,6 @@
     <t>East Nusa Tenggara</t>
   </si>
   <si>
-    <t>18_Apr</t>
-  </si>
-  <si>
     <t>Depok</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>numbers</t>
-  </si>
-  <si>
-    <t>19_Apr</t>
   </si>
   <si>
     <t>Confirmed</t>
@@ -725,6 +719,117 @@
       </rPr>
       <t>West Sumatra</t>
     </r>
+  </si>
+  <si>
+    <t>Emblem of North Kalimantan.png North Kalimantan</t>
+  </si>
+  <si>
+    <t>Aceh.svg Aceh</t>
+  </si>
+  <si>
+    <t>Bali.svg Bali</t>
+  </si>
+  <si>
+    <t>Bangka Belitung Islands.svg Bangka Belitung Islands</t>
+  </si>
+  <si>
+    <t>Banten.png Banten</t>
+  </si>
+  <si>
+    <t>Bengkulu.png Bengkulu</t>
+  </si>
+  <si>
+    <t>Central Java.svg Central Java</t>
+  </si>
+  <si>
+    <t>Central Kalimantan.png Central Kalimantan</t>
+  </si>
+  <si>
+    <t>Central Sulawesi.png Central Sulawesi</t>
+  </si>
+  <si>
+    <t>East Java.svg East Java[b]</t>
+  </si>
+  <si>
+    <t>East Kalimantan.svg East Kalimantan</t>
+  </si>
+  <si>
+    <t>East Nusa Tenggara.svg East Nusa Tenggara</t>
+  </si>
+  <si>
+    <t>Gorontalo.png Gorontalo</t>
+  </si>
+  <si>
+    <t>Jakarta.svg Jakarta[c]</t>
+  </si>
+  <si>
+    <t>Jambi.svg Jambi</t>
+  </si>
+  <si>
+    <t>Lampung.svg Lampung</t>
+  </si>
+  <si>
+    <t>Maluku.svg Maluku</t>
+  </si>
+  <si>
+    <t>North Maluku.png North Maluku</t>
+  </si>
+  <si>
+    <t>North Sulawesi.svg North Sulawesi</t>
+  </si>
+  <si>
+    <t>North Sumatra.svg North Sumatra[d]</t>
+  </si>
+  <si>
+    <t>Papua.svg Papua</t>
+  </si>
+  <si>
+    <t>Riau.svg Riau</t>
+  </si>
+  <si>
+    <t>Riau Islands.png Riau Islands</t>
+  </si>
+  <si>
+    <t>South Kalimantan.gif South Kalimantan</t>
+  </si>
+  <si>
+    <t>South Sulawesi.svg South Sulawesi</t>
+  </si>
+  <si>
+    <t>South Sumatra.svg South Sumatra</t>
+  </si>
+  <si>
+    <t>Southeast Sulawesi.svg Southeast Sulawesi</t>
+  </si>
+  <si>
+    <t>Yogyakarta.svg Special Region of Yogyakarta</t>
+  </si>
+  <si>
+    <t>West Java.svg West Java</t>
+  </si>
+  <si>
+    <t>West Kalimantan.svg West Kalimantan</t>
+  </si>
+  <si>
+    <t>West Nusa Tenggara.svg West Nusa Tenggara</t>
+  </si>
+  <si>
+    <t>West Papua.svg West Papua</t>
+  </si>
+  <si>
+    <t>West Sulawesi.png West Sulawesi</t>
+  </si>
+  <si>
+    <t>West Sumatra.svg West Sumatra</t>
+  </si>
+  <si>
+    <t>East Java.svg East Java</t>
+  </si>
+  <si>
+    <t>Jakarta.svg Jakarta[b]</t>
+  </si>
+  <si>
+    <t>North Sumatra.svg North Sumatra[c]</t>
   </si>
 </sst>
 </file>
@@ -798,11 +903,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -819,2057 +924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507A075-1695-EF4C-8D4E-4907D59B56AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="8178800"/>
-          <a:ext cx="254000" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7514F4A4-4202-A64B-B695-F2F9BC7E617D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="8382000"/>
-          <a:ext cx="254000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4845C7A7-5FFE-B647-A7DE-90FE3AFF97F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="8636000"/>
-          <a:ext cx="254000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9DA08F-C38E-4848-8FFE-E723E9065470}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="8851900"/>
-          <a:ext cx="254000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C9AA5-3CCD-2C44-9AED-0325B44910A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="9093200"/>
-          <a:ext cx="254000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AF881C-CDFF-B749-9C8B-145C99CF6A18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="9309100"/>
-          <a:ext cx="254000" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093DBA09-3B60-1246-8AD7-F65255549886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="9575800"/>
-          <a:ext cx="254000" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64F78C6-744F-AA45-93E2-7B09437CAF97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="9867900"/>
-          <a:ext cx="254000" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BE8981-B6EA-F84E-9CE6-7A5B60ACF623}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="10147300"/>
-          <a:ext cx="254000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC59ACD-B722-D547-9D0D-53B955091A80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="10388600"/>
-          <a:ext cx="254000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80669DBE-8083-5C44-9676-83D984947670}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="10604500"/>
-          <a:ext cx="254000" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9A6BF4-B549-E24E-9755-400B4C8C153E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="10833100"/>
-          <a:ext cx="254000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCC0B1D-8B73-D545-9763-3E98FFF06DD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="11061700"/>
-          <a:ext cx="254000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41278F3-0CAB-6F49-8D7D-3E5E39209881}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="11277600"/>
-          <a:ext cx="254000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB920E-1AB6-1949-B19E-603B3FF104F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="11582400"/>
-          <a:ext cx="254000" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8114091-A904-9E43-AD28-736FFEFA88C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="11811000"/>
-          <a:ext cx="254000" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F197EBDD-49C4-D145-B6F2-80C557952EEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12077700"/>
-          <a:ext cx="254000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3970C33-A5EC-4C46-B30C-D99E76B5A8ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12306300"/>
-          <a:ext cx="254000" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8176554-2788-7F44-84E9-DBC3A8C2BEE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="11836400"/>
-          <a:ext cx="254000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7121D41B-27A7-434F-BDEB-E10A61679DBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12090400"/>
-          <a:ext cx="254000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5EF7DD-E302-3143-A9D3-B51C153091F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12344400"/>
-          <a:ext cx="254000" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45271A44-0A8E-234A-96C1-424CDFA0A3F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12636500"/>
-          <a:ext cx="254000" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6561B1D-4D97-D242-81D9-3F32B5BF3759}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12903200"/>
-          <a:ext cx="254000" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13556512-78A9-1B4A-B129-2369126B6CCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13182600"/>
-          <a:ext cx="254000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20A7E25-5918-C045-B384-D09D577400E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13423900"/>
-          <a:ext cx="254000" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40A4F25-E588-6444-A7CF-B7247EB8273D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13690600"/>
-          <a:ext cx="254000" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCD2E7-6EC2-C744-ACF5-2E804AEE60AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13462000"/>
-          <a:ext cx="254000" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AAC94D-4DA9-9C4D-9AF1-16DF34984B61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13728700"/>
-          <a:ext cx="254000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BC7D23-08BF-144A-AC0E-6579D1DD35AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13957300"/>
-          <a:ext cx="254000" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D072C97-A3D7-9440-9747-60C2761192F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14224000"/>
-          <a:ext cx="254000" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4FC128-08EC-3848-AE1D-2C03323B13E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14516100"/>
-          <a:ext cx="254000" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF4DF82-765F-FE42-AB5B-D5FC65F246F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14808200"/>
-          <a:ext cx="254000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6742DF-5511-F849-B30B-54F29F4637C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15036800"/>
-          <a:ext cx="254000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3169,36 +1223,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEE03B-CDF9-3142-B543-7BCA59A79ABF}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1"/>
+      <c r="A1" s="4"/>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
+      <c r="A2" s="4">
+        <v>43939</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3214,8 +1268,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
+      <c r="A3" s="4">
+        <v>43939</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3231,8 +1285,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
+      <c r="A4" s="4">
+        <v>43939</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3248,8 +1302,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
+      <c r="A5" s="4">
+        <v>43939</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3265,8 +1319,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
+      <c r="A6" s="4">
+        <v>43939</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3282,8 +1336,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
+      <c r="A7" s="4">
+        <v>43939</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3299,8 +1353,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
+      <c r="A8" s="4">
+        <v>43939</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3316,8 +1370,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
+      <c r="A9" s="4">
+        <v>43939</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -3333,8 +1387,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
+      <c r="A10" s="4">
+        <v>43939</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -3350,8 +1404,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
+      <c r="A11" s="4">
+        <v>43939</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3367,8 +1421,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="4">
+        <v>43939</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3384,8 +1438,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
+      <c r="A13" s="4">
+        <v>43939</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3401,8 +1455,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
+      <c r="A14" s="4">
+        <v>43939</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -3418,8 +1472,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
+      <c r="A15" s="4">
+        <v>43939</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -3435,8 +1489,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
+      <c r="A16" s="4">
+        <v>43939</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -3452,8 +1506,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
+      <c r="A17" s="4">
+        <v>43939</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3469,8 +1523,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
+      <c r="A18" s="4">
+        <v>43939</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -3486,8 +1540,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
+      <c r="A19" s="4">
+        <v>43939</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -3503,8 +1557,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
+      <c r="A20" s="4">
+        <v>43939</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -3520,8 +1574,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
+      <c r="A21" s="4">
+        <v>43939</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -3537,8 +1591,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
+      <c r="A22" s="4">
+        <v>43939</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3554,8 +1608,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
+      <c r="A23" s="4">
+        <v>43939</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -3571,8 +1625,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
+      <c r="A24" s="4">
+        <v>43939</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3588,8 +1642,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
+      <c r="A25" s="4">
+        <v>43939</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -3605,8 +1659,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
+      <c r="A26" s="4">
+        <v>43939</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -3622,8 +1676,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
+      <c r="A27" s="4">
+        <v>43939</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3639,8 +1693,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
+      <c r="A28" s="4">
+        <v>43939</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3656,8 +1710,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>34</v>
+      <c r="A29" s="4">
+        <v>43939</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -3673,8 +1727,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
+      <c r="A30" s="4">
+        <v>43939</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -3690,8 +1744,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
+      <c r="A31" s="4">
+        <v>43939</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3707,8 +1761,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
+      <c r="A32" s="4">
+        <v>43939</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -3724,8 +1778,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33" s="4">
+        <v>43939</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -3741,8 +1795,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34" s="4">
+        <v>43939</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -3758,8 +1812,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="4">
+        <v>43939</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -3775,8 +1829,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>53</v>
+      <c r="A36" s="4">
+        <v>43940</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -3795,11 +1849,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
+      <c r="A37" s="4">
+        <v>43940</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>135</v>
@@ -3815,11 +1869,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
+      <c r="A38" s="4">
+        <v>43940</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -3835,11 +1889,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="A39" s="4">
+        <v>43940</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>324</v>
@@ -3855,11 +1909,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>53</v>
+      <c r="A40" s="4">
+        <v>43940</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3875,11 +1929,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>53</v>
+      <c r="A41" s="4">
+        <v>43940</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>349</v>
@@ -3895,11 +1949,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>53</v>
+      <c r="A42" s="4">
+        <v>43940</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>46</v>
@@ -3915,11 +1969,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
+      <c r="A43" s="4">
+        <v>43940</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>27</v>
@@ -3935,11 +1989,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>53</v>
+      <c r="A44" s="4">
+        <v>43940</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>590</v>
@@ -3955,11 +2009,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>53</v>
+      <c r="A45" s="4">
+        <v>43940</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>59</v>
@@ -3975,11 +2029,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>53</v>
+      <c r="A46" s="4">
+        <v>43940</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3995,11 +2049,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>53</v>
+      <c r="A47" s="4">
+        <v>43940</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4015,11 +2069,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>53</v>
+      <c r="A48" s="4">
+        <v>43940</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>3032</v>
@@ -4035,11 +2089,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>53</v>
+      <c r="A49" s="4">
+        <v>43940</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -4055,11 +2109,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>53</v>
+      <c r="A50" s="4">
+        <v>43940</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>26</v>
@@ -4075,11 +2129,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>53</v>
+      <c r="A51" s="4">
+        <v>43940</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -4095,11 +2149,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>53</v>
+      <c r="A52" s="4">
+        <v>43940</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>69</v>
@@ -4115,11 +2169,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>53</v>
+      <c r="A53" s="4">
+        <v>43940</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4135,11 +2189,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>53</v>
+      <c r="A54" s="4">
+        <v>43940</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -4155,11 +2209,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
+      <c r="A55" s="4">
+        <v>43940</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55">
         <v>81</v>
@@ -4175,11 +2229,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>53</v>
+      <c r="A56" s="4">
+        <v>43940</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>107</v>
@@ -4195,11 +2249,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>53</v>
+      <c r="A57" s="4">
+        <v>43940</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -4215,11 +2269,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>53</v>
+      <c r="A58" s="4">
+        <v>43940</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>79</v>
@@ -4235,11 +2289,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>53</v>
+      <c r="A59" s="4">
+        <v>43940</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59">
         <v>96</v>
@@ -4255,11 +2309,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>53</v>
+      <c r="A60" s="4">
+        <v>43940</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60">
         <v>370</v>
@@ -4275,11 +2329,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>53</v>
+      <c r="A61" s="4">
+        <v>43940</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>89</v>
@@ -4295,11 +2349,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>53</v>
+      <c r="A62" s="4">
+        <v>43940</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>37</v>
@@ -4315,11 +2369,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>53</v>
+      <c r="A63" s="4">
+        <v>43940</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>67</v>
@@ -4335,11 +2389,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>53</v>
+      <c r="A64" s="4">
+        <v>43940</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64">
         <v>696</v>
@@ -4355,11 +2409,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>53</v>
+      <c r="A65" s="4">
+        <v>43940</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65">
         <v>21</v>
@@ -4375,11 +2429,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>53</v>
+      <c r="A66" s="4">
+        <v>43940</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <v>61</v>
@@ -4395,11 +2449,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>53</v>
+      <c r="A67" s="4">
+        <v>43940</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -4415,11 +2469,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>53</v>
+      <c r="A68" s="4">
+        <v>43940</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -4435,11 +2489,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>53</v>
+      <c r="A69" s="4">
+        <v>43940</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69">
         <v>72</v>
@@ -4454,9 +2508,1368 @@
         <v>52</v>
       </c>
     </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71">
+        <v>140</v>
+      </c>
+      <c r="D71">
+        <v>42</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73">
+        <v>341</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>35</v>
+      </c>
+      <c r="F73">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
+        <v>351</v>
+      </c>
+      <c r="D75">
+        <v>51</v>
+      </c>
+      <c r="E75">
+        <v>44</v>
+      </c>
+      <c r="F75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78">
+        <v>590</v>
+      </c>
+      <c r="D78">
+        <v>98</v>
+      </c>
+      <c r="E78">
+        <v>56</v>
+      </c>
+      <c r="F78">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79">
+        <v>59</v>
+      </c>
+      <c r="D79">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82">
+        <v>3097</v>
+      </c>
+      <c r="D82">
+        <v>230</v>
+      </c>
+      <c r="E82">
+        <v>287</v>
+      </c>
+      <c r="F82">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>74</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90">
+        <v>107</v>
+      </c>
+      <c r="D90">
+        <v>28</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>34</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92">
+        <v>79</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94">
+        <v>370</v>
+      </c>
+      <c r="D94">
+        <v>63</v>
+      </c>
+      <c r="E94">
+        <v>25</v>
+      </c>
+      <c r="F94">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97">
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <v>28</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>747</v>
+      </c>
+      <c r="D98">
+        <v>56</v>
+      </c>
+      <c r="E98">
+        <v>62</v>
+      </c>
+      <c r="F98">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100">
+        <v>72</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103">
+        <v>74</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105">
+        <v>150</v>
+      </c>
+      <c r="D105">
+        <v>42</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107">
+        <v>341</v>
+      </c>
+      <c r="D107">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109">
+        <v>449</v>
+      </c>
+      <c r="D109">
+        <v>51</v>
+      </c>
+      <c r="E109">
+        <v>44</v>
+      </c>
+      <c r="F109">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110">
+        <v>67</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111">
+        <v>27</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112">
+        <v>603</v>
+      </c>
+      <c r="D112">
+        <v>101</v>
+      </c>
+      <c r="E112">
+        <v>58</v>
+      </c>
+      <c r="F112">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113">
+        <v>68</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116">
+        <v>3260</v>
+      </c>
+      <c r="D116">
+        <v>286</v>
+      </c>
+      <c r="E116">
+        <v>298</v>
+      </c>
+      <c r="F116">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119">
+        <v>17</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>77</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123">
+        <v>84</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124">
+        <v>118</v>
+      </c>
+      <c r="D124">
+        <v>28</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B125" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125">
+        <v>35</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126">
+        <v>81</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>8</v>
+      </c>
+      <c r="F126">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127">
+        <v>98</v>
+      </c>
+      <c r="D127">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B128" t="s">
+        <v>113</v>
+      </c>
+      <c r="C128">
+        <v>374</v>
+      </c>
+      <c r="D128">
+        <v>73</v>
+      </c>
+      <c r="E128">
+        <v>30</v>
+      </c>
+      <c r="F128">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129">
+        <v>89</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130">
+        <v>37</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131">
+        <v>72</v>
+      </c>
+      <c r="D131">
+        <v>30</v>
+      </c>
+      <c r="E131">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B132" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132">
+        <v>756</v>
+      </c>
+      <c r="D132">
+        <v>75</v>
+      </c>
+      <c r="E132">
+        <v>68</v>
+      </c>
+      <c r="F132">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133">
+        <v>27</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B134" t="s">
+        <v>119</v>
+      </c>
+      <c r="C134">
+        <v>93</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B136" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137">
+        <v>76</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>7</v>
+      </c>
+      <c r="F137">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4464,28 +3877,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A9E86-8B04-C54F-9B07-4777D9F605B9}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43921</v>
       </c>
       <c r="B2" t="s">
@@ -4496,7 +3909,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43921</v>
       </c>
       <c r="B3" t="s">
@@ -4507,7 +3920,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43921</v>
       </c>
       <c r="B4" t="s">
@@ -4518,7 +3931,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43921</v>
       </c>
       <c r="B5" t="s">
@@ -4529,7 +3942,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43921</v>
       </c>
       <c r="B6" t="s">
@@ -4540,18 +3953,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43921</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43921</v>
       </c>
       <c r="B8" t="s">
@@ -4562,7 +3975,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43921</v>
       </c>
       <c r="B9" t="s">
@@ -4573,18 +3986,18 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43921</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>43921</v>
       </c>
       <c r="B11" t="s">
@@ -4595,7 +4008,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43921</v>
       </c>
       <c r="B12" t="s">
@@ -4606,7 +4019,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>43921</v>
       </c>
       <c r="B13" t="s">
@@ -4617,18 +4030,18 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>43921</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43921</v>
       </c>
       <c r="B15" t="s">
@@ -4639,7 +4052,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43920</v>
       </c>
       <c r="B16" t="s">
@@ -4650,7 +4063,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>43920</v>
       </c>
       <c r="B17" t="s">
@@ -4661,7 +4074,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>43920</v>
       </c>
       <c r="B18" t="s">
@@ -4672,7 +4085,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>43920</v>
       </c>
       <c r="B19" t="s">
@@ -4683,7 +4096,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>43920</v>
       </c>
       <c r="B20" t="s">
@@ -4694,7 +4107,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>43920</v>
       </c>
       <c r="B21" t="s">
@@ -4705,7 +4118,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>43920</v>
       </c>
       <c r="B22" t="s">
@@ -4716,7 +4129,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>43920</v>
       </c>
       <c r="B23" t="s">
@@ -4727,7 +4140,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>43920</v>
       </c>
       <c r="B24" t="s">
@@ -4738,7 +4151,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>43920</v>
       </c>
       <c r="B25" t="s">
@@ -4749,18 +4162,18 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>43920</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>43920</v>
       </c>
       <c r="B27" t="s">
@@ -4771,7 +4184,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>43920</v>
       </c>
       <c r="B28" t="s">
@@ -4782,7 +4195,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>43920</v>
       </c>
       <c r="B29" t="s">
@@ -4793,7 +4206,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>43920</v>
       </c>
       <c r="B30" t="s">
@@ -4804,7 +4217,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>43920</v>
       </c>
       <c r="B31" t="s">
@@ -4815,18 +4228,18 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>43920</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>43919</v>
       </c>
       <c r="B33" t="s">
@@ -4837,7 +4250,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>43919</v>
       </c>
       <c r="B34" t="s">
@@ -4848,7 +4261,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>43919</v>
       </c>
       <c r="B35" t="s">
@@ -4859,7 +4272,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>43919</v>
       </c>
       <c r="B36" t="s">
@@ -4870,7 +4283,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>43919</v>
       </c>
       <c r="B37" t="s">
@@ -4881,7 +4294,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>43919</v>
       </c>
       <c r="B38" t="s">
@@ -4892,7 +4305,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>43919</v>
       </c>
       <c r="B39" t="s">
@@ -4903,7 +4316,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>43919</v>
       </c>
       <c r="B40" t="s">
@@ -4914,7 +4327,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>43919</v>
       </c>
       <c r="B41" t="s">
@@ -4925,7 +4338,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>43919</v>
       </c>
       <c r="B42" t="s">
@@ -4936,7 +4349,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>43919</v>
       </c>
       <c r="B43" t="s">
@@ -4947,18 +4360,18 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>43892</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>43896</v>
       </c>
       <c r="B45" t="s">
@@ -4969,7 +4382,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>43898</v>
       </c>
       <c r="B46" t="s">
@@ -4980,7 +4393,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>43900</v>
       </c>
       <c r="B47" t="s">
@@ -4991,7 +4404,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>43903</v>
       </c>
       <c r="B48" t="s">
@@ -5002,7 +4415,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>43903</v>
       </c>
       <c r="B49" t="s">
@@ -5011,30 +4424,30 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="4"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>43903</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="4"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>43903</v>
       </c>
       <c r="B51" t="s">
@@ -5043,14 +4456,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="4"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>43904</v>
       </c>
       <c r="B52" t="s">
@@ -5059,14 +4472,14 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="4"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>43905</v>
       </c>
       <c r="B53" t="s">
@@ -5075,14 +4488,14 @@
       <c r="C53">
         <v>19</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="4"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>43905</v>
       </c>
       <c r="B54" t="s">
@@ -5091,14 +4504,14 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="4"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>43906</v>
       </c>
       <c r="B55" t="s">
@@ -5107,14 +4520,14 @@
       <c r="C55">
         <v>14</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="4"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>43906</v>
       </c>
       <c r="B56" t="s">
@@ -5123,14 +4536,14 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="4"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>43906</v>
       </c>
       <c r="B57" t="s">
@@ -5139,14 +4552,14 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="4"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>43906</v>
       </c>
       <c r="B58" t="s">
@@ -5155,14 +4568,14 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="4"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>43907</v>
       </c>
       <c r="B59" t="s">
@@ -5171,14 +4584,14 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="4"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>43907</v>
       </c>
       <c r="B60" t="s">
@@ -5187,14 +4600,14 @@
       <c r="C60">
         <v>6</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="4"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>43907</v>
       </c>
       <c r="B61" t="s">
@@ -5203,14 +4616,14 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="4"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>43908</v>
       </c>
       <c r="B62" t="s">
@@ -5219,12 +4632,12 @@
       <c r="C62">
         <v>30</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>43908</v>
       </c>
       <c r="B63" t="s">
@@ -5235,7 +4648,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>43908</v>
       </c>
       <c r="B64" t="s">
@@ -5246,7 +4659,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>43908</v>
       </c>
       <c r="B65" t="s">
@@ -5257,7 +4670,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>43908</v>
       </c>
       <c r="B66" t="s">
@@ -5268,7 +4681,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>43908</v>
       </c>
       <c r="B67" t="s">
@@ -5279,7 +4692,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>43908</v>
       </c>
       <c r="B68" t="s">
@@ -5290,7 +4703,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>43908</v>
       </c>
       <c r="B69" t="s">
@@ -5301,102 +4714,102 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>43908</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>43908</v>
       </c>
       <c r="B71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>43909</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>43910</v>
+      </c>
+      <c r="B73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
-        <v>43910</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>43911</v>
+      </c>
+      <c r="B74" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>43911</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B75" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>43912</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>43913</v>
+      </c>
+      <c r="B76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>43913</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>43914</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B78" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>43915</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>43916</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B80" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>43918</v>
+      </c>
+      <c r="B81" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>43918</v>
-      </c>
-      <c r="B81" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_data/indonesia/Indonesia case numbers.xlsx
+++ b/data/covid_data/indonesia/Indonesia case numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahamfaisalkhan/repos/world-bank/covid-analytics/data/covid_data/indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423094DD-A361-8644-A417-D224440A7903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C62244-65B7-1F47-9C51-7C683BEA738D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="560" windowWidth="18280" windowHeight="16940" xr2:uid="{B8E48691-8142-734D-8F42-F86D954D82D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
   <si>
     <t>Jakarta</t>
   </si>
@@ -916,13 +916,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7567,10 +7568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEE03B-CDF9-3142-B543-7BCA59A79ABF}">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7580,7 +7581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1"/>
+      <c r="A1" s="4"/>
       <c r="C1" t="s">
         <v>52</v>
       </c>
@@ -7595,7 +7596,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>43939</v>
       </c>
       <c r="B2" t="s">
@@ -7612,7 +7613,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>43939</v>
       </c>
       <c r="B3" t="s">
@@ -7629,7 +7630,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>43939</v>
       </c>
       <c r="B4" t="s">
@@ -7646,7 +7647,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>43939</v>
       </c>
       <c r="B5" t="s">
@@ -7663,7 +7664,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>43939</v>
       </c>
       <c r="B6" t="s">
@@ -7680,7 +7681,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>43939</v>
       </c>
       <c r="B7" t="s">
@@ -7697,7 +7698,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>43939</v>
       </c>
       <c r="B8" t="s">
@@ -7714,7 +7715,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>43939</v>
       </c>
       <c r="B9" t="s">
@@ -7731,7 +7732,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>43939</v>
       </c>
       <c r="B10" t="s">
@@ -7748,7 +7749,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>43939</v>
       </c>
       <c r="B11" t="s">
@@ -7765,7 +7766,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>43939</v>
       </c>
       <c r="B12" t="s">
@@ -7782,7 +7783,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>43939</v>
       </c>
       <c r="B13" t="s">
@@ -7799,7 +7800,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>43939</v>
       </c>
       <c r="B14" t="s">
@@ -7816,7 +7817,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>43939</v>
       </c>
       <c r="B15" t="s">
@@ -7833,7 +7834,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>43939</v>
       </c>
       <c r="B16" t="s">
@@ -7850,7 +7851,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>43939</v>
       </c>
       <c r="B17" t="s">
@@ -7867,7 +7868,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>43939</v>
       </c>
       <c r="B18" t="s">
@@ -7884,7 +7885,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>43939</v>
       </c>
       <c r="B19" t="s">
@@ -7901,7 +7902,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>43939</v>
       </c>
       <c r="B20" t="s">
@@ -7918,7 +7919,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>43939</v>
       </c>
       <c r="B21" t="s">
@@ -7935,7 +7936,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>43939</v>
       </c>
       <c r="B22" t="s">
@@ -7952,7 +7953,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>43939</v>
       </c>
       <c r="B23" t="s">
@@ -7969,7 +7970,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>43939</v>
       </c>
       <c r="B24" t="s">
@@ -7986,7 +7987,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>43939</v>
       </c>
       <c r="B25" t="s">
@@ -8003,7 +8004,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>43939</v>
       </c>
       <c r="B26" t="s">
@@ -8020,7 +8021,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>43939</v>
       </c>
       <c r="B27" t="s">
@@ -8037,7 +8038,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>43939</v>
       </c>
       <c r="B28" t="s">
@@ -8054,7 +8055,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>43939</v>
       </c>
       <c r="B29" t="s">
@@ -8071,7 +8072,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>43939</v>
       </c>
       <c r="B30" t="s">
@@ -8088,7 +8089,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>43939</v>
       </c>
       <c r="B31" t="s">
@@ -8105,7 +8106,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>43939</v>
       </c>
       <c r="B32" t="s">
@@ -8122,7 +8123,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>43939</v>
       </c>
       <c r="B33" t="s">
@@ -8139,7 +8140,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>43939</v>
       </c>
       <c r="B34" t="s">
@@ -8156,7 +8157,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>43939</v>
       </c>
       <c r="B35" t="s">
@@ -8173,7 +8174,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>43940</v>
       </c>
       <c r="B36" t="s">
@@ -8193,7 +8194,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>43940</v>
       </c>
       <c r="B37" t="s">
@@ -8213,7 +8214,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>43940</v>
       </c>
       <c r="B38" t="s">
@@ -8233,7 +8234,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>43940</v>
       </c>
       <c r="B39" t="s">
@@ -8253,7 +8254,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>43940</v>
       </c>
       <c r="B40" t="s">
@@ -8273,7 +8274,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>43940</v>
       </c>
       <c r="B41" t="s">
@@ -8293,7 +8294,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>43940</v>
       </c>
       <c r="B42" t="s">
@@ -8313,7 +8314,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>43940</v>
       </c>
       <c r="B43" t="s">
@@ -8333,7 +8334,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>43940</v>
       </c>
       <c r="B44" t="s">
@@ -8353,7 +8354,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>43940</v>
       </c>
       <c r="B45" t="s">
@@ -8373,7 +8374,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>43940</v>
       </c>
       <c r="B46" t="s">
@@ -8393,7 +8394,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>43940</v>
       </c>
       <c r="B47" t="s">
@@ -8413,7 +8414,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>43940</v>
       </c>
       <c r="B48" t="s">
@@ -8433,7 +8434,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>43940</v>
       </c>
       <c r="B49" t="s">
@@ -8453,7 +8454,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>43940</v>
       </c>
       <c r="B50" t="s">
@@ -8473,7 +8474,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>43940</v>
       </c>
       <c r="B51" t="s">
@@ -8493,7 +8494,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>43940</v>
       </c>
       <c r="B52" t="s">
@@ -8513,7 +8514,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>43940</v>
       </c>
       <c r="B53" t="s">
@@ -8533,7 +8534,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>43940</v>
       </c>
       <c r="B54" t="s">
@@ -8553,7 +8554,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>43940</v>
       </c>
       <c r="B55" t="s">
@@ -8573,7 +8574,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>43940</v>
       </c>
       <c r="B56" t="s">
@@ -8593,7 +8594,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>43940</v>
       </c>
       <c r="B57" t="s">
@@ -8613,7 +8614,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>43940</v>
       </c>
       <c r="B58" t="s">
@@ -8633,7 +8634,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>43940</v>
       </c>
       <c r="B59" t="s">
@@ -8653,7 +8654,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>43940</v>
       </c>
       <c r="B60" t="s">
@@ -8673,7 +8674,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>43940</v>
       </c>
       <c r="B61" t="s">
@@ -8693,7 +8694,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>43940</v>
       </c>
       <c r="B62" t="s">
@@ -8713,7 +8714,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>43940</v>
       </c>
       <c r="B63" t="s">
@@ -8733,7 +8734,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>43940</v>
       </c>
       <c r="B64" t="s">
@@ -8753,7 +8754,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>43940</v>
       </c>
       <c r="B65" t="s">
@@ -8773,7 +8774,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>43940</v>
       </c>
       <c r="B66" t="s">
@@ -8793,7 +8794,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>43940</v>
       </c>
       <c r="B67" t="s">
@@ -8813,7 +8814,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>43940</v>
       </c>
       <c r="B68" t="s">
@@ -8833,7 +8834,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>43940</v>
       </c>
       <c r="B69" t="s">
@@ -8853,7 +8854,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>43941</v>
       </c>
       <c r="B70" t="s">
@@ -8873,7 +8874,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>43941</v>
       </c>
       <c r="B71" t="s">
@@ -8893,7 +8894,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>43941</v>
       </c>
       <c r="B72" t="s">
@@ -8913,7 +8914,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>43941</v>
       </c>
       <c r="B73" t="s">
@@ -8933,7 +8934,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>43941</v>
       </c>
       <c r="B74" t="s">
@@ -8953,7 +8954,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>43941</v>
       </c>
       <c r="B75" t="s">
@@ -8973,7 +8974,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>43941</v>
       </c>
       <c r="B76" t="s">
@@ -8993,7 +8994,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>43941</v>
       </c>
       <c r="B77" t="s">
@@ -9013,7 +9014,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>43941</v>
       </c>
       <c r="B78" t="s">
@@ -9033,7 +9034,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>43941</v>
       </c>
       <c r="B79" t="s">
@@ -9053,7 +9054,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>43941</v>
       </c>
       <c r="B80" t="s">
@@ -9073,7 +9074,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>43941</v>
       </c>
       <c r="B81" t="s">
@@ -9093,7 +9094,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>43941</v>
       </c>
       <c r="B82" t="s">
@@ -9113,7 +9114,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>43941</v>
       </c>
       <c r="B83" t="s">
@@ -9133,7 +9134,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>43941</v>
       </c>
       <c r="B84" t="s">
@@ -9153,7 +9154,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>43941</v>
       </c>
       <c r="B85" t="s">
@@ -9173,7 +9174,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>43941</v>
       </c>
       <c r="B86" t="s">
@@ -9193,7 +9194,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>43941</v>
       </c>
       <c r="B87" t="s">
@@ -9213,7 +9214,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>43941</v>
       </c>
       <c r="B88" t="s">
@@ -9233,7 +9234,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>43941</v>
       </c>
       <c r="B89" t="s">
@@ -9253,7 +9254,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>43941</v>
       </c>
       <c r="B90" t="s">
@@ -9273,7 +9274,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>43941</v>
       </c>
       <c r="B91" t="s">
@@ -9293,7 +9294,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>43941</v>
       </c>
       <c r="B92" t="s">
@@ -9313,7 +9314,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>43941</v>
       </c>
       <c r="B93" t="s">
@@ -9333,7 +9334,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>43941</v>
       </c>
       <c r="B94" t="s">
@@ -9353,7 +9354,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>43941</v>
       </c>
       <c r="B95" t="s">
@@ -9373,7 +9374,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>43941</v>
       </c>
       <c r="B96" t="s">
@@ -9393,7 +9394,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>43941</v>
       </c>
       <c r="B97" t="s">
@@ -9413,7 +9414,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>43941</v>
       </c>
       <c r="B98" t="s">
@@ -9433,7 +9434,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>43941</v>
       </c>
       <c r="B99" t="s">
@@ -9453,7 +9454,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>43941</v>
       </c>
       <c r="B100" t="s">
@@ -9473,7 +9474,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>43941</v>
       </c>
       <c r="B101" t="s">
@@ -9493,7 +9494,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>43941</v>
       </c>
       <c r="B102" t="s">
@@ -9513,7 +9514,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>43941</v>
       </c>
       <c r="B103" t="s">
@@ -9533,7 +9534,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>43942</v>
       </c>
       <c r="B104" t="s">
@@ -9553,7 +9554,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>43942</v>
       </c>
       <c r="B105" t="s">
@@ -9573,7 +9574,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>43942</v>
       </c>
       <c r="B106" t="s">
@@ -9593,7 +9594,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>43942</v>
       </c>
       <c r="B107" t="s">
@@ -9613,7 +9614,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>43942</v>
       </c>
       <c r="B108" t="s">
@@ -9633,7 +9634,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>43942</v>
       </c>
       <c r="B109" t="s">
@@ -9653,7 +9654,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>43942</v>
       </c>
       <c r="B110" t="s">
@@ -9673,7 +9674,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>43942</v>
       </c>
       <c r="B111" t="s">
@@ -9693,7 +9694,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>43942</v>
       </c>
       <c r="B112" t="s">
@@ -9713,7 +9714,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>43942</v>
       </c>
       <c r="B113" t="s">
@@ -9733,7 +9734,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>43942</v>
       </c>
       <c r="B114" t="s">
@@ -9753,7 +9754,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>43942</v>
       </c>
       <c r="B115" t="s">
@@ -9773,7 +9774,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>43942</v>
       </c>
       <c r="B116" t="s">
@@ -9793,7 +9794,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>43942</v>
       </c>
       <c r="B117" t="s">
@@ -9813,7 +9814,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>43942</v>
       </c>
       <c r="B118" t="s">
@@ -9833,7 +9834,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>43942</v>
       </c>
       <c r="B119" t="s">
@@ -9853,7 +9854,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>43942</v>
       </c>
       <c r="B120" t="s">
@@ -9873,7 +9874,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>43942</v>
       </c>
       <c r="B121" t="s">
@@ -9893,7 +9894,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>43942</v>
       </c>
       <c r="B122" t="s">
@@ -9913,7 +9914,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>43942</v>
       </c>
       <c r="B123" t="s">
@@ -9933,7 +9934,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>43942</v>
       </c>
       <c r="B124" t="s">
@@ -9953,7 +9954,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>43942</v>
       </c>
       <c r="B125" t="s">
@@ -9973,7 +9974,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>43942</v>
       </c>
       <c r="B126" t="s">
@@ -9993,7 +9994,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>43942</v>
       </c>
       <c r="B127" t="s">
@@ -10013,7 +10014,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>43942</v>
       </c>
       <c r="B128" t="s">
@@ -10033,7 +10034,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>43942</v>
       </c>
       <c r="B129" t="s">
@@ -10053,7 +10054,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>43942</v>
       </c>
       <c r="B130" t="s">
@@ -10073,7 +10074,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>43942</v>
       </c>
       <c r="B131" t="s">
@@ -10093,7 +10094,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>43942</v>
       </c>
       <c r="B132" t="s">
@@ -10113,7 +10114,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>43942</v>
       </c>
       <c r="B133" t="s">
@@ -10133,7 +10134,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>43942</v>
       </c>
       <c r="B134" t="s">
@@ -10153,7 +10154,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>43942</v>
       </c>
       <c r="B135" t="s">
@@ -10173,7 +10174,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>43942</v>
       </c>
       <c r="B136" t="s">
@@ -10193,7 +10194,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>43942</v>
       </c>
       <c r="B137" t="s">
@@ -10213,7 +10214,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>43944</v>
       </c>
       <c r="B138" t="s">
@@ -10233,7 +10234,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>43944</v>
       </c>
       <c r="B139" t="s">
@@ -10253,7 +10254,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>43944</v>
       </c>
       <c r="B140" t="s">
@@ -10273,7 +10274,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>43944</v>
       </c>
       <c r="B141" t="s">
@@ -10293,7 +10294,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>43944</v>
       </c>
       <c r="B142" t="s">
@@ -10313,7 +10314,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>43944</v>
       </c>
       <c r="B143" t="s">
@@ -10333,7 +10334,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>43944</v>
       </c>
       <c r="B144" t="s">
@@ -10353,7 +10354,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>43944</v>
       </c>
       <c r="B145" t="s">
@@ -10373,7 +10374,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>43944</v>
       </c>
       <c r="B146" t="s">
@@ -10393,7 +10394,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>43944</v>
       </c>
       <c r="B147" t="s">
@@ -10413,7 +10414,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>43944</v>
       </c>
       <c r="B148" t="s">
@@ -10433,7 +10434,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>43944</v>
       </c>
       <c r="B149" t="s">
@@ -10453,7 +10454,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>43944</v>
       </c>
       <c r="B150" t="s">
@@ -10473,7 +10474,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>43944</v>
       </c>
       <c r="B151" t="s">
@@ -10493,7 +10494,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>43944</v>
       </c>
       <c r="B152" t="s">
@@ -10513,7 +10514,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>43944</v>
       </c>
       <c r="B153" t="s">
@@ -10533,7 +10534,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>43944</v>
       </c>
       <c r="B154" t="s">
@@ -10553,7 +10554,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>43944</v>
       </c>
       <c r="B155" t="s">
@@ -10573,7 +10574,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>43944</v>
       </c>
       <c r="B156" t="s">
@@ -10593,7 +10594,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>43944</v>
       </c>
       <c r="B157" t="s">
@@ -10613,7 +10614,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>43944</v>
       </c>
       <c r="B158" t="s">
@@ -10633,7 +10634,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>43944</v>
       </c>
       <c r="B159" t="s">
@@ -10653,7 +10654,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>43944</v>
       </c>
       <c r="B160" t="s">
@@ -10673,7 +10674,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>43944</v>
       </c>
       <c r="B161" t="s">
@@ -10693,7 +10694,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>43944</v>
       </c>
       <c r="B162" t="s">
@@ -10713,7 +10714,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>43944</v>
       </c>
       <c r="B163" t="s">
@@ -10733,7 +10734,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>43944</v>
       </c>
       <c r="B164" t="s">
@@ -10753,7 +10754,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>43944</v>
       </c>
       <c r="B165" t="s">
@@ -10773,7 +10774,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>43944</v>
       </c>
       <c r="B166" t="s">
@@ -10793,7 +10794,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>43944</v>
       </c>
       <c r="B167" t="s">
@@ -10813,7 +10814,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>43944</v>
       </c>
       <c r="B168" t="s">
@@ -10833,7 +10834,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>43944</v>
       </c>
       <c r="B169" t="s">
@@ -10853,7 +10854,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>43944</v>
       </c>
       <c r="B170" t="s">
@@ -10873,7 +10874,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>43944</v>
       </c>
       <c r="B171" t="s">
@@ -10893,7 +10894,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>43946</v>
       </c>
       <c r="B172" t="s">
@@ -10913,7 +10914,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>43946</v>
       </c>
       <c r="B173" t="s">
@@ -10933,7 +10934,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>43946</v>
       </c>
       <c r="B174" t="s">
@@ -10953,7 +10954,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>43946</v>
       </c>
       <c r="B175" t="s">
@@ -10973,7 +10974,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>43946</v>
       </c>
       <c r="B176" t="s">
@@ -10993,7 +10994,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>43946</v>
       </c>
       <c r="B177" t="s">
@@ -11013,7 +11014,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>43946</v>
       </c>
       <c r="B178" t="s">
@@ -11033,7 +11034,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>43946</v>
       </c>
       <c r="B179" t="s">
@@ -11053,7 +11054,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>43946</v>
       </c>
       <c r="B180" t="s">
@@ -11073,7 +11074,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>43946</v>
       </c>
       <c r="B181" t="s">
@@ -11093,7 +11094,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>43946</v>
       </c>
       <c r="B182" t="s">
@@ -11113,7 +11114,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>43946</v>
       </c>
       <c r="B183" t="s">
@@ -11133,7 +11134,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>43946</v>
       </c>
       <c r="B184" t="s">
@@ -11153,7 +11154,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>43946</v>
       </c>
       <c r="B185" t="s">
@@ -11173,7 +11174,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>43946</v>
       </c>
       <c r="B186" t="s">
@@ -11193,7 +11194,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>43946</v>
       </c>
       <c r="B187" t="s">
@@ -11213,7 +11214,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>43946</v>
       </c>
       <c r="B188" t="s">
@@ -11233,7 +11234,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>43946</v>
       </c>
       <c r="B189" t="s">
@@ -11253,7 +11254,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>43946</v>
       </c>
       <c r="B190" t="s">
@@ -11273,7 +11274,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>43946</v>
       </c>
       <c r="B191" t="s">
@@ -11293,7 +11294,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>43946</v>
       </c>
       <c r="B192" t="s">
@@ -11313,7 +11314,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>43946</v>
       </c>
       <c r="B193" t="s">
@@ -11333,7 +11334,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>43946</v>
       </c>
       <c r="B194" t="s">
@@ -11353,7 +11354,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>43946</v>
       </c>
       <c r="B195" t="s">
@@ -11373,7 +11374,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>43946</v>
       </c>
       <c r="B196" t="s">
@@ -11393,7 +11394,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>43946</v>
       </c>
       <c r="B197" t="s">
@@ -11413,7 +11414,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>43946</v>
       </c>
       <c r="B198" t="s">
@@ -11433,7 +11434,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>43946</v>
       </c>
       <c r="B199" t="s">
@@ -11453,7 +11454,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>43946</v>
       </c>
       <c r="B200" t="s">
@@ -11473,7 +11474,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>43946</v>
       </c>
       <c r="B201" t="s">
@@ -11493,7 +11494,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>43946</v>
       </c>
       <c r="B202" t="s">
@@ -11513,7 +11514,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>43946</v>
       </c>
       <c r="B203" t="s">
@@ -11533,7 +11534,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>43946</v>
       </c>
       <c r="B204" t="s">
@@ -11553,7 +11554,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>43946</v>
       </c>
       <c r="B205" t="s">
@@ -11573,7 +11574,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>43947</v>
       </c>
       <c r="B206" t="s">
@@ -11593,7 +11594,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>43947</v>
       </c>
       <c r="B207" t="s">
@@ -11613,7 +11614,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>43947</v>
       </c>
       <c r="B208" t="s">
@@ -11633,7 +11634,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>43947</v>
       </c>
       <c r="B209" t="s">
@@ -11653,7 +11654,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>43947</v>
       </c>
       <c r="B210" t="s">
@@ -11673,7 +11674,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>43947</v>
       </c>
       <c r="B211" t="s">
@@ -11693,7 +11694,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>43947</v>
       </c>
       <c r="B212" t="s">
@@ -11713,7 +11714,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>43947</v>
       </c>
       <c r="B213" t="s">
@@ -11733,7 +11734,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>43947</v>
       </c>
       <c r="B214" t="s">
@@ -11753,7 +11754,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>43947</v>
       </c>
       <c r="B215" t="s">
@@ -11773,7 +11774,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>43947</v>
       </c>
       <c r="B216" t="s">
@@ -11793,7 +11794,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>43947</v>
       </c>
       <c r="B217" t="s">
@@ -11813,7 +11814,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>43947</v>
       </c>
       <c r="B218" t="s">
@@ -11833,7 +11834,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>43947</v>
       </c>
       <c r="B219" t="s">
@@ -11853,7 +11854,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>43947</v>
       </c>
       <c r="B220" t="s">
@@ -11873,7 +11874,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>43947</v>
       </c>
       <c r="B221" t="s">
@@ -11893,7 +11894,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>43947</v>
       </c>
       <c r="B222" t="s">
@@ -11913,7 +11914,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>43947</v>
       </c>
       <c r="B223" t="s">
@@ -11933,7 +11934,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>43947</v>
       </c>
       <c r="B224" t="s">
@@ -11953,7 +11954,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>43947</v>
       </c>
       <c r="B225" t="s">
@@ -11973,7 +11974,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>43947</v>
       </c>
       <c r="B226" t="s">
@@ -11993,7 +11994,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>43947</v>
       </c>
       <c r="B227" t="s">
@@ -12013,7 +12014,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>43947</v>
       </c>
       <c r="B228" t="s">
@@ -12033,7 +12034,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>43947</v>
       </c>
       <c r="B229" t="s">
@@ -12053,7 +12054,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>43947</v>
       </c>
       <c r="B230" t="s">
@@ -12073,7 +12074,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>43947</v>
       </c>
       <c r="B231" t="s">
@@ -12093,7 +12094,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>43947</v>
       </c>
       <c r="B232" t="s">
@@ -12113,7 +12114,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>43947</v>
       </c>
       <c r="B233" t="s">
@@ -12133,7 +12134,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>43947</v>
       </c>
       <c r="B234" t="s">
@@ -12153,7 +12154,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>43947</v>
       </c>
       <c r="B235" t="s">
@@ -12173,7 +12174,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>43947</v>
       </c>
       <c r="B236" t="s">
@@ -12193,7 +12194,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>43947</v>
       </c>
       <c r="B237" t="s">
@@ -12213,7 +12214,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>43947</v>
       </c>
       <c r="B238" t="s">
@@ -12233,7 +12234,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>43947</v>
       </c>
       <c r="B239" t="s">
@@ -12253,7 +12254,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>43949</v>
       </c>
       <c r="B240" t="s">
@@ -12270,7 +12271,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>43949</v>
       </c>
       <c r="B241" t="s">
@@ -12287,7 +12288,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>43949</v>
       </c>
       <c r="B242" t="s">
@@ -12304,7 +12305,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>43949</v>
       </c>
       <c r="B243" t="s">
@@ -12321,7 +12322,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>43949</v>
       </c>
       <c r="B244" t="s">
@@ -12338,7 +12339,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>43949</v>
       </c>
       <c r="B245" t="s">
@@ -12355,7 +12356,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>43949</v>
       </c>
       <c r="B246" t="s">
@@ -12372,7 +12373,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>43949</v>
       </c>
       <c r="B247" t="s">
@@ -12389,7 +12390,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>43949</v>
       </c>
       <c r="B248" t="s">
@@ -12406,7 +12407,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>43949</v>
       </c>
       <c r="B249" t="s">
@@ -12423,7 +12424,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>43949</v>
       </c>
       <c r="B250" t="s">
@@ -12440,7 +12441,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>43949</v>
       </c>
       <c r="B251" t="s">
@@ -12457,7 +12458,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>43949</v>
       </c>
       <c r="B252" t="s">
@@ -12474,7 +12475,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>43949</v>
       </c>
       <c r="B253" t="s">
@@ -12491,7 +12492,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>43949</v>
       </c>
       <c r="B254" t="s">
@@ -12508,7 +12509,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>43949</v>
       </c>
       <c r="B255" t="s">
@@ -12525,7 +12526,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>43949</v>
       </c>
       <c r="B256" t="s">
@@ -12542,7 +12543,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>43949</v>
       </c>
       <c r="B257" t="s">
@@ -12559,7 +12560,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>43949</v>
       </c>
       <c r="B258" t="s">
@@ -12576,7 +12577,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>43949</v>
       </c>
       <c r="B259" t="s">
@@ -12593,7 +12594,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>43949</v>
       </c>
       <c r="B260" t="s">
@@ -12610,7 +12611,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>43949</v>
       </c>
       <c r="B261" t="s">
@@ -12627,7 +12628,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>43949</v>
       </c>
       <c r="B262" t="s">
@@ -12644,7 +12645,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>43949</v>
       </c>
       <c r="B263" t="s">
@@ -12661,7 +12662,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>43949</v>
       </c>
       <c r="B264" t="s">
@@ -12675,6 +12676,584 @@
       </c>
       <c r="E264">
         <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="6">
+        <v>4092</v>
+      </c>
+      <c r="D265">
+        <v>440</v>
+      </c>
+      <c r="E265">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="6">
+        <v>1009</v>
+      </c>
+      <c r="D266">
+        <v>107</v>
+      </c>
+      <c r="E266">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>872</v>
+      </c>
+      <c r="D267">
+        <v>152</v>
+      </c>
+      <c r="E267">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>711</v>
+      </c>
+      <c r="D268">
+        <v>101</v>
+      </c>
+      <c r="E268">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>465</v>
+      </c>
+      <c r="D269">
+        <v>118</v>
+      </c>
+      <c r="E269">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>388</v>
+      </c>
+      <c r="D270">
+        <v>33</v>
+      </c>
+      <c r="E270">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B271" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271">
+        <v>230</v>
+      </c>
+      <c r="D271">
+        <v>24</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>215</v>
+      </c>
+      <c r="D272">
+        <v>96</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>189</v>
+      </c>
+      <c r="D273">
+        <v>47</v>
+      </c>
+      <c r="E273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274">
+        <v>157</v>
+      </c>
+      <c r="D274">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275">
+        <v>145</v>
+      </c>
+      <c r="D275">
+        <v>24</v>
+      </c>
+      <c r="E275">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276">
+        <v>144</v>
+      </c>
+      <c r="D276">
+        <v>22</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B277" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277">
+        <v>127</v>
+      </c>
+      <c r="D277">
+        <v>11</v>
+      </c>
+      <c r="E277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B278" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278">
+        <v>119</v>
+      </c>
+      <c r="D278">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279">
+        <v>114</v>
+      </c>
+      <c r="D279">
+        <v>40</v>
+      </c>
+      <c r="E279">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280">
+        <v>94</v>
+      </c>
+      <c r="D280">
+        <v>40</v>
+      </c>
+      <c r="E280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281">
+        <v>92</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282">
+        <v>89</v>
+      </c>
+      <c r="D282">
+        <v>11</v>
+      </c>
+      <c r="E282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283">
+        <v>58</v>
+      </c>
+      <c r="D283">
+        <v>7</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284">
+        <v>53</v>
+      </c>
+      <c r="D284">
+        <v>7</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B285" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285">
+        <v>47</v>
+      </c>
+      <c r="D285">
+        <v>8</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B286" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286">
+        <v>46</v>
+      </c>
+      <c r="D286">
+        <v>11</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287">
+        <v>44</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288">
+        <v>41</v>
+      </c>
+      <c r="D288">
+        <v>15</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B289" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289">
+        <v>38</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B290" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290">
+        <v>37</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B291" t="s">
+        <v>25</v>
+      </c>
+      <c r="C291">
+        <v>32</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B292" t="s">
+        <v>32</v>
+      </c>
+      <c r="C292">
+        <v>26</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B293" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293">
+        <v>23</v>
+      </c>
+      <c r="D293">
+        <v>12</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B294" t="s">
+        <v>31</v>
+      </c>
+      <c r="C294">
+        <v>15</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B295" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295">
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B296" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+      <c r="D297">
+        <v>4</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B298" t="s">
+        <v>33</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_data/indonesia/Indonesia case numbers.xlsx
+++ b/data/covid_data/indonesia/Indonesia case numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahamfaisalkhan/repos/world-bank/covid-analytics/data/covid_data/indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C62244-65B7-1F47-9C51-7C683BEA738D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3243A-1D72-0745-AE5A-AEED8BEE0484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="560" windowWidth="18280" windowHeight="16940" xr2:uid="{B8E48691-8142-734D-8F42-F86D954D82D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="127">
   <si>
     <t>Jakarta</t>
   </si>
@@ -7568,10 +7568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEE03B-CDF9-3142-B543-7BCA59A79ABF}">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13254,6 +13254,431 @@
       </c>
       <c r="E298">
         <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="6">
+        <v>4317</v>
+      </c>
+      <c r="D299">
+        <v>488</v>
+      </c>
+      <c r="E299">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="6">
+        <v>1034</v>
+      </c>
+      <c r="D300">
+        <v>162</v>
+      </c>
+      <c r="E300">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="6">
+        <v>1012</v>
+      </c>
+      <c r="D301">
+        <v>145</v>
+      </c>
+      <c r="E301">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>746</v>
+      </c>
+      <c r="D302">
+        <v>112</v>
+      </c>
+      <c r="E302">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>547</v>
+      </c>
+      <c r="D303">
+        <v>135</v>
+      </c>
+      <c r="E303">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>418</v>
+      </c>
+      <c r="D304">
+        <v>34</v>
+      </c>
+      <c r="E304">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>235</v>
+      </c>
+      <c r="D305">
+        <v>121</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B306" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306">
+        <v>233</v>
+      </c>
+      <c r="D306">
+        <v>31</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>210</v>
+      </c>
+      <c r="D307">
+        <v>48</v>
+      </c>
+      <c r="E307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308">
+        <v>179</v>
+      </c>
+      <c r="D308">
+        <v>24</v>
+      </c>
+      <c r="E308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309">
+        <v>172</v>
+      </c>
+      <c r="D309">
+        <v>30</v>
+      </c>
+      <c r="E309">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B310" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310">
+        <v>156</v>
+      </c>
+      <c r="D310">
+        <v>11</v>
+      </c>
+      <c r="E310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>156</v>
+      </c>
+      <c r="D311">
+        <v>29</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312">
+        <v>136</v>
+      </c>
+      <c r="D312">
+        <v>13</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313">
+        <v>117</v>
+      </c>
+      <c r="D313">
+        <v>41</v>
+      </c>
+      <c r="E313">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314">
+        <v>115</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315">
+        <v>104</v>
+      </c>
+      <c r="D315">
+        <v>44</v>
+      </c>
+      <c r="E315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316">
+        <v>89</v>
+      </c>
+      <c r="D316">
+        <v>15</v>
+      </c>
+      <c r="E316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317">
+        <v>62</v>
+      </c>
+      <c r="D317">
+        <v>11</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B318" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318">
+        <v>61</v>
+      </c>
+      <c r="D318">
+        <v>8</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B319" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>50</v>
+      </c>
+      <c r="D319">
+        <v>13</v>
+      </c>
+      <c r="E319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B320" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>48</v>
+      </c>
+      <c r="D320">
+        <v>11</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321">
+        <v>45</v>
+      </c>
+      <c r="D321">
+        <v>14</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B322" t="s">
+        <v>26</v>
+      </c>
+      <c r="C322">
+        <v>43</v>
+      </c>
+      <c r="D322">
+        <v>3</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B323" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323">
+        <v>42</v>
+      </c>
+      <c r="D323">
+        <v>16</v>
+      </c>
+      <c r="E323">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
